--- a/实战1/真题模拟/2022国赛C/解题/表3.xlsx
+++ b/实战1/真题模拟/2022国赛C/解题/表3.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>文物编号</t>
   </si>
@@ -574,16 +574,25 @@
     </r>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
     <t>无风化</t>
   </si>
   <si>
+    <t>高钾</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
     <t>风化</t>
+  </si>
+  <si>
+    <t>铅钡</t>
   </si>
   <si>
     <t>A3</t>
@@ -615,7 +624,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,13 +663,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -668,13 +670,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -828,13 +823,6 @@
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1181,137 +1169,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1327,16 +1315,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1864,15 +1849,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:P9"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="46.8" spans="1:16">
+    <row r="1" ht="46.8" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1921,13 +1906,16 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6">
         <v>78.45</v>
@@ -1961,13 +1949,16 @@
       <c r="P2" s="6">
         <v>0.51</v>
       </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6">
         <v>37.75</v>
@@ -1993,13 +1984,16 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="4"/>
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6">
         <v>31.95</v>
@@ -2037,13 +2031,16 @@
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="4"/>
+      <c r="Q4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6">
         <v>35.47</v>
@@ -2081,13 +2078,16 @@
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
+      <c r="Q5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6">
         <v>64.29</v>
@@ -2129,34 +2129,37 @@
         <v>0.49</v>
       </c>
       <c r="P6" s="4"/>
+      <c r="Q6" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="7">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4">
         <v>93.17</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
         <v>1.35</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>0.64</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>0.21</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>1.52</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>0.27</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="4">
         <v>1.73</v>
       </c>
       <c r="K7" s="4"/>
@@ -2167,13 +2170,16 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
+      <c r="Q7" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6">
         <v>90.83</v>
@@ -2205,55 +2211,61 @@
       <c r="P8" s="4">
         <v>0.11</v>
       </c>
+      <c r="Q8" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7">
         <v>51.12</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>0.23</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>0.89</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>0</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>2.12</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>0</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>9.01</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>21.24</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>11.34</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>1.46</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>0.31</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>0</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <v>2.26</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
